--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>610.5931529960326</v>
+        <v>556.4069294013181</v>
       </c>
       <c r="R2">
-        <v>2442.37261198413</v>
+        <v>2225.627717605272</v>
       </c>
       <c r="S2">
-        <v>0.003088746983942204</v>
+        <v>0.001973312603347145</v>
       </c>
       <c r="T2">
-        <v>0.001490024150176343</v>
+        <v>0.0009495808412839838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>2373.034914985562</v>
+        <v>1575.445765453397</v>
       </c>
       <c r="R3">
-        <v>14238.20948991337</v>
+        <v>9452.674592720381</v>
       </c>
       <c r="S3">
-        <v>0.0120042362094729</v>
+        <v>0.005587362091633422</v>
       </c>
       <c r="T3">
-        <v>0.008686338804792802</v>
+        <v>0.004033054864088962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>3266.084616033194</v>
+        <v>1610.069202642601</v>
       </c>
       <c r="R4">
-        <v>19596.50769619916</v>
+        <v>9660.415215855604</v>
       </c>
       <c r="S4">
-        <v>0.01652181810027291</v>
+        <v>0.00571015507167443</v>
       </c>
       <c r="T4">
-        <v>0.01195528871523517</v>
+        <v>0.004121688966785103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>1047.236966099169</v>
+        <v>859.1855985625861</v>
       </c>
       <c r="R5">
-        <v>4188.947864396677</v>
+        <v>3436.742394250344</v>
       </c>
       <c r="S5">
-        <v>0.005297553705998747</v>
+        <v>0.003047125549069223</v>
       </c>
       <c r="T5">
-        <v>0.002555561526998166</v>
+        <v>0.001466312046796394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>477.658577012466</v>
+        <v>850.9440311644124</v>
       </c>
       <c r="R6">
-        <v>2865.951462074796</v>
+        <v>5105.664186986474</v>
       </c>
       <c r="S6">
-        <v>0.002416284037680596</v>
+        <v>0.003017896601766842</v>
       </c>
       <c r="T6">
-        <v>0.001748437920885264</v>
+        <v>0.00217837010908937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>3232.134773444282</v>
+        <v>2024.233184931764</v>
       </c>
       <c r="R7">
-        <v>19392.80864066569</v>
+        <v>12145.39910959058</v>
       </c>
       <c r="S7">
-        <v>0.01635007940096506</v>
+        <v>0.007178999118931391</v>
       </c>
       <c r="T7">
-        <v>0.01183101754112205</v>
+        <v>0.005181926075500208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>5252.169701667934</v>
+        <v>7209.082921792081</v>
       </c>
       <c r="R8">
-        <v>31513.0182100076</v>
+        <v>43254.49753075248</v>
       </c>
       <c r="S8">
-        <v>0.02656862961135246</v>
+        <v>0.02556721247784172</v>
       </c>
       <c r="T8">
-        <v>0.01922522302594641</v>
+        <v>0.01845485740030336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>20412.25326607666</v>
@@ -1013,10 +1013,10 @@
         <v>183710.2793946899</v>
       </c>
       <c r="S9">
-        <v>0.1032574397562371</v>
+        <v>0.07239262220548393</v>
       </c>
       <c r="T9">
-        <v>0.1120765732429978</v>
+        <v>0.07838137541161977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>28094.04360209841</v>
+        <v>20860.85161477622</v>
       </c>
       <c r="R10">
-        <v>252846.3924188857</v>
+        <v>187747.664532986</v>
       </c>
       <c r="S10">
-        <v>0.1421165501397066</v>
+        <v>0.07398358868802228</v>
       </c>
       <c r="T10">
-        <v>0.1542546084657586</v>
+        <v>0.08010395621248068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>9008.070655270587</v>
+        <v>11132.03286650616</v>
       </c>
       <c r="R11">
-        <v>54048.42393162352</v>
+        <v>66792.19719903696</v>
       </c>
       <c r="S11">
-        <v>0.04556823300602272</v>
+        <v>0.03948006323355328</v>
       </c>
       <c r="T11">
-        <v>0.03297345234790543</v>
+        <v>0.02849739437811763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>4108.699702276213</v>
+        <v>11025.2510497468</v>
       </c>
       <c r="R12">
-        <v>36978.29732048592</v>
+        <v>99227.25944772117</v>
       </c>
       <c r="S12">
-        <v>0.02078427141061037</v>
+        <v>0.03910135855953659</v>
       </c>
       <c r="T12">
-        <v>0.02255943903463783</v>
+        <v>0.04233605816432522</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>27802.0155409468</v>
+        <v>26226.96467658658</v>
       </c>
       <c r="R13">
-        <v>250218.1398685212</v>
+        <v>236042.6820892792</v>
       </c>
       <c r="S13">
-        <v>0.1406392967694672</v>
+        <v>0.09301465745499411</v>
       </c>
       <c r="T13">
-        <v>0.1526511840932488</v>
+        <v>0.1007093894743714</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>3654.849623175217</v>
+        <v>7902.452100582361</v>
       </c>
       <c r="R14">
-        <v>21929.0977390513</v>
+        <v>47414.71260349416</v>
       </c>
       <c r="S14">
-        <v>0.01848842505840891</v>
+        <v>0.0280262654963789</v>
       </c>
       <c r="T14">
-        <v>0.01337833754867547</v>
+        <v>0.02022984451852049</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>14204.36132023408</v>
+        <v>22375.50260554194</v>
       </c>
       <c r="R15">
-        <v>127839.2518821067</v>
+        <v>201379.5234498775</v>
       </c>
       <c r="S15">
-        <v>0.07185419288018675</v>
+        <v>0.07935534042548931</v>
       </c>
       <c r="T15">
-        <v>0.07799120073250032</v>
+        <v>0.08592009156888898</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>19549.92136678096</v>
+        <v>22867.24711749402</v>
       </c>
       <c r="R16">
-        <v>175949.2923010286</v>
+        <v>205805.2240574462</v>
       </c>
       <c r="S16">
-        <v>0.09889524696053099</v>
+        <v>0.08109932597237299</v>
       </c>
       <c r="T16">
-        <v>0.1073418091279647</v>
+        <v>0.08780835009162521</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>6268.484361709794</v>
+        <v>12202.71114426372</v>
       </c>
       <c r="R17">
-        <v>37610.90617025876</v>
+        <v>73216.26686558232</v>
       </c>
       <c r="S17">
-        <v>0.03170975971662394</v>
+        <v>0.04327725343372264</v>
       </c>
       <c r="T17">
-        <v>0.02294537624141443</v>
+        <v>0.03123827212248214</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>2859.138301231107</v>
+        <v>12085.65905853958</v>
       </c>
       <c r="R18">
-        <v>25732.24471107996</v>
+        <v>108770.9315268562</v>
       </c>
       <c r="S18">
-        <v>0.01446323916550469</v>
+        <v>0.04286212496604513</v>
       </c>
       <c r="T18">
-        <v>0.01569853259474961</v>
+        <v>0.04640793779188242</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>19346.70656035198</v>
+        <v>28749.47262347062</v>
       </c>
       <c r="R19">
-        <v>174120.3590431678</v>
+        <v>258745.2536112356</v>
       </c>
       <c r="S19">
-        <v>0.09786726438756892</v>
+        <v>0.1019608018335077</v>
       </c>
       <c r="T19">
-        <v>0.106226027404119</v>
+        <v>0.1103956127338144</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>375.969588441685</v>
+        <v>336.6517446947161</v>
       </c>
       <c r="R20">
-        <v>1503.87835376674</v>
+        <v>1346.606978778864</v>
       </c>
       <c r="S20">
-        <v>0.001901880043454716</v>
+        <v>0.001193944747344685</v>
       </c>
       <c r="T20">
-        <v>0.0009174746945018738</v>
+        <v>0.000574540017484858</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>1461.184024038127</v>
+        <v>953.2170388001141</v>
       </c>
       <c r="R21">
-        <v>8767.104144228761</v>
+        <v>5719.302232800685</v>
       </c>
       <c r="S21">
-        <v>0.007391546605275514</v>
+        <v>0.003380610659204803</v>
       </c>
       <c r="T21">
-        <v>0.005348568370736721</v>
+        <v>0.002440183406604864</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>2011.074776846863</v>
+        <v>974.165808344762</v>
       </c>
       <c r="R22">
-        <v>12066.44866108118</v>
+        <v>5844.994850068572</v>
       </c>
       <c r="S22">
-        <v>0.01017322438187961</v>
+        <v>0.003454906051268931</v>
       </c>
       <c r="T22">
-        <v>0.007361407437855256</v>
+        <v>0.002493811109164594</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>644.8307669571619</v>
+        <v>519.846744331332</v>
       </c>
       <c r="R23">
-        <v>2579.323067828648</v>
+        <v>2079.386977325328</v>
       </c>
       <c r="S23">
-        <v>0.003261941403730437</v>
+        <v>0.001843650893244193</v>
       </c>
       <c r="T23">
-        <v>0.001573573845085596</v>
+        <v>0.0008871861271606173</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>294.1158081020679</v>
+        <v>514.8602175700647</v>
       </c>
       <c r="R24">
-        <v>1764.694848612408</v>
+        <v>3089.161305420389</v>
       </c>
       <c r="S24">
-        <v>0.001487814448536551</v>
+        <v>0.001825966037817385</v>
       </c>
       <c r="T24">
-        <v>0.00107659164257831</v>
+        <v>0.001318013955370446</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>1990.170336167856</v>
+        <v>1224.754037677889</v>
       </c>
       <c r="R25">
-        <v>11941.02201700713</v>
+        <v>7348.524226067332</v>
       </c>
       <c r="S25">
-        <v>0.01006747716250537</v>
+        <v>0.004343624154987667</v>
       </c>
       <c r="T25">
-        <v>0.007284888102587215</v>
+        <v>0.003135303250218752</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>342.239477464955</v>
+        <v>895.075851166854</v>
       </c>
       <c r="R26">
-        <v>2053.43686478973</v>
+        <v>5370.455107001124</v>
       </c>
       <c r="S26">
-        <v>0.001731252878645864</v>
+        <v>0.003174411325106409</v>
       </c>
       <c r="T26">
-        <v>0.001252745180807396</v>
+        <v>0.002291345150963137</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>1330.093901848961</v>
+        <v>2534.374366972208</v>
       </c>
       <c r="R27">
-        <v>11970.84511664065</v>
+        <v>22809.36930274987</v>
       </c>
       <c r="S27">
-        <v>0.006728414014368403</v>
+        <v>0.008988228966392078</v>
       </c>
       <c r="T27">
-        <v>0.007303082352911269</v>
+        <v>0.009731789337601923</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>1830.651206720609</v>
+        <v>2590.072096232686</v>
       </c>
       <c r="R28">
-        <v>16475.86086048548</v>
+        <v>23310.64886609418</v>
       </c>
       <c r="S28">
-        <v>0.009260533574055943</v>
+        <v>0.009185762507618423</v>
       </c>
       <c r="T28">
-        <v>0.01005146817345168</v>
+        <v>0.009945664041674681</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>586.9797758149659</v>
+        <v>1382.147202536058</v>
       </c>
       <c r="R29">
-        <v>3521.878654889796</v>
+        <v>8292.883215216349</v>
       </c>
       <c r="S29">
-        <v>0.002969296336336951</v>
+        <v>0.004901823378404067</v>
       </c>
       <c r="T29">
-        <v>0.002148601005443336</v>
+        <v>0.003538221131002109</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>267.729208886924</v>
+        <v>1368.889229703465</v>
       </c>
       <c r="R30">
-        <v>2409.562879982316</v>
+        <v>12320.00306733118</v>
       </c>
       <c r="S30">
-        <v>0.001354335177859572</v>
+        <v>0.004854803610132058</v>
       </c>
       <c r="T30">
-        <v>0.001470007837839871</v>
+        <v>0.005256422170139625</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>1811.622207900961</v>
+        <v>3256.325802614454</v>
       </c>
       <c r="R31">
-        <v>16304.59987110864</v>
+        <v>29306.93222353008</v>
       </c>
       <c r="S31">
-        <v>0.009164273466284949</v>
+        <v>0.01154864975139252</v>
       </c>
       <c r="T31">
-        <v>0.009946986568596446</v>
+        <v>0.01250402353283779</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>730.54352574301</v>
+        <v>4085.05816729506</v>
       </c>
       <c r="R32">
-        <v>4383.26115445806</v>
+        <v>24510.34900377036</v>
       </c>
       <c r="S32">
-        <v>0.00369552802992517</v>
+        <v>0.01448777206208251</v>
       </c>
       <c r="T32">
-        <v>0.002674106704532102</v>
+        <v>0.01045752514809945</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>2839.215089455942</v>
+        <v>11566.69202200732</v>
       </c>
       <c r="R33">
-        <v>25552.93580510348</v>
+        <v>104100.2281980659</v>
       </c>
       <c r="S33">
-        <v>0.01436245559140297</v>
+        <v>0.04102159398090317</v>
       </c>
       <c r="T33">
-        <v>0.01558914117800357</v>
+        <v>0.04441514701144012</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>3907.703450430598</v>
+        <v>11820.89222584334</v>
       </c>
       <c r="R34">
-        <v>35169.33105387538</v>
+        <v>106388.03003259</v>
       </c>
       <c r="S34">
-        <v>0.01976751161953576</v>
+        <v>0.04192312205235035</v>
       </c>
       <c r="T34">
-        <v>0.02145583862130273</v>
+        <v>0.04539125490834211</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>1252.965549562052</v>
+        <v>6308.01480205662</v>
       </c>
       <c r="R35">
-        <v>7517.793297372312</v>
+        <v>37848.08881233972</v>
       </c>
       <c r="S35">
-        <v>0.006338252473359164</v>
+        <v>0.02237154940610125</v>
       </c>
       <c r="T35">
-        <v>0.004586398289169551</v>
+        <v>0.01614817237003274</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>571.494094291528</v>
+        <v>6247.506421531153</v>
       </c>
       <c r="R36">
-        <v>5143.446848623752</v>
+        <v>56227.55779378038</v>
       </c>
       <c r="S36">
-        <v>0.002890960456111122</v>
+        <v>0.02215695475677238</v>
       </c>
       <c r="T36">
-        <v>0.003137875024471324</v>
+        <v>0.02398991134537589</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>3867.084197526061</v>
+        <v>14861.62351269166</v>
       </c>
       <c r="R37">
-        <v>34803.75777773455</v>
+        <v>133754.6116142249</v>
       </c>
       <c r="S37">
-        <v>0.01956203503617865</v>
+        <v>0.05270715987550613</v>
       </c>
       <c r="T37">
-        <v>0.02123281245099761</v>
+        <v>0.05706741321451061</v>
       </c>
     </row>
   </sheetData>
